--- a/eform/public/files/template/dataKelompok.xlsx
+++ b/eform/public/files/template/dataKelompok.xlsx
@@ -104,9 +104,6 @@
     <t>[a.jmlpeserta]</t>
   </si>
   <si>
-    <t>DAFTAR DATA KELOMPOK</t>
-  </si>
-  <si>
     <t>Tanggal</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>[a.keterangan]</t>
+  </si>
+  <si>
+    <t>DAFTAR KEGIATAN KELOMPOK</t>
   </si>
 </sst>
 </file>
@@ -245,14 +245,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,26 +592,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="A1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -624,62 +624,62 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
@@ -703,7 +703,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -746,10 +746,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>15</v>
@@ -773,7 +773,7 @@
         <v>25</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
